--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="severalAnswers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="severalAnswers1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1538,4 +1540,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>22300896</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>8814</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>22303499</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>22300896</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>8814</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>22303499</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -10,6 +10,9 @@
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="severalAnswers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="severalAnswers1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="severalAnswers2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="severalAnswers3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="severalAnswers4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -64,11 +67,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -95,6 +98,27 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -102,16 +126,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -180,41 +204,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -222,243 +246,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -471,12 +387,13 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.66796875" defaultRowHeight="14.4" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="21.66" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.64" customWidth="1" style="3" min="2" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1" s="4">
@@ -1508,37 +1425,34 @@
     <row r="839" ht="13.8" customHeight="1" s="4"/>
     <row r="840" ht="13.8" customHeight="1" s="4"/>
     <row r="841" ht="13.8" customHeight="1" s="4"/>
-    <row r="1048566" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048567" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048568" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048569" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048570" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048571" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048572" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048573" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048574" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048575" ht="12.8" customHeight="1" s="4"/>
-    <row r="1048576" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A2">
     <cfRule type="cellIs" rank="0" priority="2" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
-      <formula>22302237</formula>
-    </cfRule>
-    <cfRule type="cellIs" rank="0" priority="3" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
-      <formula>22303499</formula>
-    </cfRule>
-    <cfRule type="cellIs" rank="0" priority="4" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
       <formula>22300896</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" rank="0" priority="5" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" rank="0" priority="3" equalAverage="0" operator="equal" aboveAverage="0" dxfId="1" text="" percent="0" bottom="0">
+      <formula>22302237</formula>
+    </cfRule>
+    <cfRule type="cellIs" rank="0" priority="4" equalAverage="0" operator="equal" aboveAverage="0" dxfId="2" text="" percent="0" bottom="0">
+      <formula>22303499</formula>
+    </cfRule>
+    <cfRule type="cellIs" rank="0" priority="5" equalAverage="0" operator="equal" aboveAverage="0" dxfId="0" text="" percent="0" bottom="0">
       <formula>22300896</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1676,4 +1590,208 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>22300896</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>8814</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>22303499</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>22300896</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>8814</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>22303499</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22300896</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8814</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22303499</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -11,6 +11,7 @@
     <sheet name="severalAnswers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="severalAnswers1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="severalAnswers2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="severalAnswers3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1602,6 +1603,74 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>22300896</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8814</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>22303499</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Identifiers</t>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -12,6 +12,7 @@
     <sheet name="severalAnswers1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="severalAnswers2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="severalAnswers3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="severalAnswers4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1671,6 +1672,74 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>22300896</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>4479</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8814</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>6286</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>22303499</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>9003</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>11301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>22302237</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>4574</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>7308</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Identifiers</t>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -13,6 +13,14 @@
     <sheet name="severalAnswers2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="severalAnswers3" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="severalAnswers4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="multiple_answers" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="multiple_answers1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="multiple_answers2" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="multiple_answers3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="multiple_answers4" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="multiple_answers5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="multiple_answers6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="multiple_answers7" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1453,6 +1461,556 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -1740,52 +2298,382 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Identifiers</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>22300896</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>4479</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>8814</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
         <v>6286</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>15306</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>22303499</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>9003</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>11301</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>22302237</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>4574</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>7308</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -21,6 +21,10 @@
     <sheet name="multiple_answers5" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="multiple_answers6" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="multiple_answers7" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="multiple_answers8" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="multiple_answers9" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="multiple_answers10" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="multiple_answers11" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1916,6 +1920,446 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Identifiers</t>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -25,6 +25,9 @@
     <sheet name="multiple_answers9" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="multiple_answers10" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="multiple_answers11" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="multiple_answers12" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="multiple_answers13" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="multiple_answers14" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2360,91 +2363,201 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Identifiers</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>22300896</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>4479</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>8814</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>6286</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>15306</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>22303499</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>9003</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>11301</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>22302237</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>4574</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>7308</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>4518</t>
         </is>
@@ -2523,6 +2636,226 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -28,6 +28,23 @@
     <sheet name="multiple_answers12" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="multiple_answers13" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="multiple_answers14" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="multiple_answers15" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="multiple_answers16" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="multiple_answers17" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="multiple_answers18" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="multiple_answers19" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="multiple_answers20" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="multiple_answers21" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="multiple_answers22" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="multiple_answers23" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="multiple_answers24" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="multiple_answers25" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="multiple_answers26" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="multiple_answers27" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="multiple_answers28" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="multiple_answers29" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="multiple_answers30" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="multiple_answers31" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -2761,91 +2778,971 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Identifiers</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>22300896</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>4479</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>8814</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>6286</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>15306</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>22303499</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>9003</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>11301</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>22302237</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>4574</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>7308</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>4518</t>
         </is>
@@ -2924,6 +3821,996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/fichiers_xls/testongletbyparticipant.xlsx
+++ b/fichiers_xls/testongletbyparticipant.xlsx
@@ -45,6 +45,41 @@
     <sheet name="multiple_answers29" sheetId="36" state="visible" r:id="rId36"/>
     <sheet name="multiple_answers30" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="multiple_answers31" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="multiple_answers32" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="multiple_answers33" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="multiple_answers34" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="multiple_answers35" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="multiple_answers36" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="multiple_answers37" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="multiple_answers38" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="multiple_answers39" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="multiple_answers40" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="multiple_answers41" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="multiple_answers42" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="multiple_answers43" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="multiple_answers44" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="multiple_answers45" sheetId="52" state="visible" r:id="rId52"/>
+    <sheet name="multiple_answers46" sheetId="53" state="visible" r:id="rId53"/>
+    <sheet name="multiple_answers47" sheetId="54" state="visible" r:id="rId54"/>
+    <sheet name="multiple_answers48" sheetId="55" state="visible" r:id="rId55"/>
+    <sheet name="multiple_answers49" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="multiple_answers50" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="multiple_answers51" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="multiple_answers52" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="multiple_answers53" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="multiple_answers54" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="multiple_answers55" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="multiple_answers56" sheetId="63" state="visible" r:id="rId63"/>
+    <sheet name="multiple_answers57" sheetId="64" state="visible" r:id="rId64"/>
+    <sheet name="multiple_answers58" sheetId="65" state="visible" r:id="rId65"/>
+    <sheet name="multiple_answers59" sheetId="66" state="visible" r:id="rId66"/>
+    <sheet name="multiple_answers60" sheetId="67" state="visible" r:id="rId67"/>
+    <sheet name="multiple_answers61" sheetId="68" state="visible" r:id="rId68"/>
+    <sheet name="multiple_answers62" sheetId="69" state="visible" r:id="rId69"/>
+    <sheet name="multiple_answers63" sheetId="70" state="visible" r:id="rId70"/>
+    <sheet name="multiple_answers64" sheetId="71" state="visible" r:id="rId71"/>
+    <sheet name="multiple_answers65" sheetId="72" state="visible" r:id="rId72"/>
+    <sheet name="multiple_answers66" sheetId="73" state="visible" r:id="rId73"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -4716,91 +4751,201 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Identifiers</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>22300896</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>4479</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>8814</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>6286</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>15306</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>22303499</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>9003</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>11301</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>22302237</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>4574</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>7308</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>4518</t>
         </is>
@@ -4879,6 +5024,1106 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4940,6 +6185,1106 @@
       </c>
       <c r="D4" s="2" t="n">
         <v>4518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5015,6 +7360,1106 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5115,6 +8560,446 @@
     </row>
     <row r="13">
       <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4518</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22300896</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4479</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8814</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>15306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>22303499</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>9003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22302237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4574</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
         <is>
           <t>4518</t>
         </is>
